--- a/数据整理/stocks/A股/创业板/301073-君亭酒店.xlsx
+++ b/数据整理/stocks/A股/创业板/301073-君亭酒店.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1267,7 +1268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1278,17 +1279,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1298,13 +1319,975 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>590002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮核心成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2485</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>590001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮核心优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1093</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8981</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011201</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7895</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5355</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014597</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>70.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4606</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>590005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中邮核心主题混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4162</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2335</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>71.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通多策略精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012153</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011202</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>166109</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009619</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>69.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>71.12</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012154</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>76.55</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>166110</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>015450</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>69.23</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009620</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>78.94</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014628</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>20</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>2.37</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/301073-君亭酒店.xlsx
+++ b/数据整理/stocks/A股/创业板/301073-君亭酒店.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,813 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>590001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中邮核心优选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16.24</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>65.06</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7925</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.09</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011201</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>财通优势行业轮动混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10.65</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.39</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.89</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.6273</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>590005</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中邮核心主题混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.86</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>65.06</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3327</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004475</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华泰柏瑞富利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.22</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1307</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501001</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>财通多策略精选混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>83.87</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.96</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0717</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004010</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华泰柏瑞鼎利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>10.24</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>21.26</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0655</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001247</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华泰柏瑞新利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>10.68</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>20.70</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0651</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>501032</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>财通福盛多策略混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.47</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7.87</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0582</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>166109</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>信达澳银量化先锋混合（LOF）A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>89.44</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0532</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002091</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华泰柏瑞新利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>20.70</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0365</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009619</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>博时女性消费主题混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>55.90</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0255</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>011202</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>财通优势行业轮动混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>88.39</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.89</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0253</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>006522</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>财通新兴蓝筹混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>90.33</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>7.85</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0228</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>004011</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华泰柏瑞鼎利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>21.26</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0222</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>003513</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中邮消费升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>54.24</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0200</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>008093</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>同泰慧选混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>91.79</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0103</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>166110</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>信达澳银量化先锋混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>89.44</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0045</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>008094</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>同泰慧选混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>91.79</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>006523</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>财通新兴蓝筹混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>90.33</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>7.85</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>009620</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>博时女性消费主题混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>55.90</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>7</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.37</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -2234,64 +1486,812 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.09</v>
+          <t>590001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮核心优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>65.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7925</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.37</v>
+          <t>011201</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6273</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>590005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮核心主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>65.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3327</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1307</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通多策略精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞鼎利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001247</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>166109</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002091</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009619</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>55.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011202</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004011</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞鼎利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003513</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中邮消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>54.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>166110</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009620</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>55.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/301073-君亭酒店.xlsx
+++ b/数据整理/stocks/A股/创业板/301073-君亭酒店.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>6.09</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>20</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>2.37</v>
       </c>
     </row>
@@ -515,6 +532,556 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0439</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4994</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011815</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒越优势精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1330</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002455</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>民生加银鑫喜灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013028</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>恒越品质生活混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012153</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>66.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166109</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信澳量化先锋混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>72.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001250</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012154</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>66.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000398</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>166110</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信澳量化先锋混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1480,7 +2047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/301073-君亭酒店.xlsx
+++ b/数据整理/stocks/A股/创业板/301073-君亭酒店.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>1.99</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>6.09</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>20</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>2.37</v>
       </c>
     </row>
@@ -588,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001480</t>
+          <t>720001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>财通成长优选混合</t>
+          <t>财通价值动量混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.31</t>
+          <t>36.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.20</t>
+          <t>79.52</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0439</t>
+          <t>1.7916</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -626,32 +643,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009693</t>
+          <t>001480</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国积极成长一年定期开放混合</t>
+          <t>财通成长优选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.30</t>
+          <t>20.59</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>97.80</t>
+          <t>91.01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4994</t>
+          <t>1.1386</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -664,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011815</t>
+          <t>014915</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>恒越优势精选混合</t>
+          <t>财通匠心优选一年持有期混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.91</t>
+          <t>91.42</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>6.40</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1330</t>
+          <t>0.3507</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -702,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002455</t>
+          <t>501046</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>民生加银鑫喜灵活配置混合</t>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.04</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>22.41</t>
+          <t>91.79</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0777</t>
+          <t>0.1162</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -740,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>013028</t>
+          <t>009062</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>恒越品质生活混合</t>
+          <t>财通智慧成长混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.92</t>
+          <t>86.49</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0547</t>
+          <t>0.1046</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -778,36 +795,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005265</t>
+          <t>009063</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时厚泽回报灵活配置混合A</t>
+          <t>财通智慧成长混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>72.26</t>
+          <t>86.49</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0483</t>
+          <t>0.0887</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -816,36 +833,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>012153</t>
+          <t>005265</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>博时研究慧选混合A</t>
+          <t>博时厚泽回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>66.41</t>
+          <t>77.88</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0378</t>
+          <t>0.0452</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -854,32 +871,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>166109</t>
+          <t>012153</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>信澳量化先锋混合（LOF）A</t>
+          <t>博时研究慧选混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>88.99</t>
+          <t>69.54</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0325</t>
+          <t>0.0413</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -892,36 +909,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005266</t>
+          <t>014916</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>博时厚泽回报灵活配置混合C</t>
+          <t>财通匠心优选一年持有期混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>72.26</t>
+          <t>91.42</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>6.40</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0273</t>
+          <t>0.0378</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -930,36 +947,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001250</t>
+          <t>166109</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天弘新活力灵活配置混合</t>
+          <t>信澳量化先锋混合（LOF）A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>91.28</t>
+          <t>94.26</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0213</t>
+          <t>0.0351</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -968,36 +985,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>012154</t>
+          <t>005266</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>博时研究慧选混合C</t>
+          <t>博时厚泽回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>66.41</t>
+          <t>77.88</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0057</t>
+          <t>0.0249</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1006,36 +1023,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000398</t>
+          <t>166110</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华富灵活配置混合</t>
+          <t>信澳量化先锋混合（LOF）C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>94.04</t>
+          <t>94.26</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0047</t>
+          <t>0.0078</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1044,32 +1061,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>166110</t>
+          <t>012154</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>信澳量化先锋混合（LOF）C</t>
+          <t>博时研究慧选混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>88.99</t>
+          <t>69.54</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0045</t>
+          <t>0.0057</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1082,6 +1099,556 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0439</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4994</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011815</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒越优势精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1330</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002455</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>民生加银鑫喜灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013028</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>恒越品质生活混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012153</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>66.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166109</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信澳量化先锋混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>72.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001250</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012154</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>66.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000398</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>166110</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信澳量化先锋混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2047,7 +2614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
